--- a/MIS Project.xlsx
+++ b/MIS Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kanitoure/mis_excel_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E701140-AD0B-B84D-8DEB-9B0A3A4682C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2FE8C4-64A1-124E-827F-0DFAB816CDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="1060" windowWidth="28200" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="28200" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Collection_Walmart" sheetId="1" r:id="rId1"/>
@@ -26,42 +26,42 @@
     <definedName name="_xlchart.v1.1" hidden="1">Process_For_Charts!$A$2</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">Process_For_Charts!$A$10</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">Process_For_Charts!$A$2</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Process_For_Charts!$C$10:$C$13</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Process_For_Charts!$L$10:$L$13</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Process_For_Charts!$L$2:$L$5</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Process_For_Charts!$C$14:$C$17</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Process_For_Charts!$M$14:$M$17</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Process_For_Charts!$M$6:$M$9</definedName>
     <definedName name="_xlchart.v1.15" hidden="1">Process_For_Charts!$A$10</definedName>
     <definedName name="_xlchart.v1.16" hidden="1">Process_For_Charts!$A$2</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Process_For_Charts!$C$10:$C$13</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Process_For_Charts!$L$10:$L$13</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Process_For_Charts!$L$2:$L$5</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Process_For_Charts!$C$10:$C$13</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Data Collection_Target'!$B$2:$F$2</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Data Collection_Target'!$C$3:$F$3</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Data Collection_Target'!$C$5:$F$5</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'Data Collection_Walmart'!$B$2:$F$2</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'Data Collection_Walmart'!$C$5:$F$5</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Process_For_Charts!$C$14:$C$17</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Process_For_Charts!$M$14:$M$17</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Process_For_Charts!$M$6:$M$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Process_For_Charts!$C$14:$C$17</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Process_For_Charts!$A$10</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Process_For_Charts!$A$2</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Process_For_Charts!$C$14:$C$17</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Process_For_Charts!$M$14:$M$17</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Process_For_Charts!$M$6:$M$9</definedName>
     <definedName name="_xlchart.v1.25" hidden="1">Process_For_Charts!$A$10</definedName>
     <definedName name="_xlchart.v1.26" hidden="1">Process_For_Charts!$A$2</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Process_For_Charts!$C$10:$C$13</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Process_For_Charts!$L$10:$L$13</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Process_For_Charts!$L$2:$L$5</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Process_For_Charts!$L$10:$L$13</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Process_For_Charts!$A$10</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Process_For_Charts!$A$2</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Process_For_Charts!$C$10:$C$13</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Process_For_Charts!$L$10:$L$13</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Process_For_Charts!$L$2:$L$5</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Process_For_Charts!$C$14:$C$17</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Process_For_Charts!$M$14:$M$17</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Process_For_Charts!$M$6:$M$9</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Process_For_Charts!$M$14:$M$17</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'Data Collection_Target'!$B$2:$F$2</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'Data Collection_Target'!$C$3:$F$3</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'Data Collection_Target'!$C$5:$F$5</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'Data Collection_Walmart'!$B$2:$F$2</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'Data Collection_Walmart'!$C$5:$F$5</definedName>
     <definedName name="_xlchart.v1.35" hidden="1">Process_For_Charts!$A$10</definedName>
     <definedName name="_xlchart.v1.36" hidden="1">Process_For_Charts!$A$2</definedName>
     <definedName name="_xlchart.v1.37" hidden="1">Process_For_Charts!$C$10:$C$13</definedName>
     <definedName name="_xlchart.v1.38" hidden="1">Process_For_Charts!$L$10:$L$13</definedName>
     <definedName name="_xlchart.v1.39" hidden="1">Process_For_Charts!$L$2:$L$5</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Process_For_Charts!$L$2:$L$5</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Process_For_Charts!$M$6:$M$9</definedName>
     <definedName name="_xlchart.v1.40" hidden="1">Process_For_Charts!$A$10</definedName>
     <definedName name="_xlchart.v1.41" hidden="1">Process_For_Charts!$A$2</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Process_For_Charts!$C$10:$C$13</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Process_For_Charts!$L$10:$L$13</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Process_For_Charts!$L$2:$L$5</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Process_For_Charts!$C$14:$C$17</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Process_For_Charts!$M$14:$M$17</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Process_For_Charts!$M$6:$M$9</definedName>
     <definedName name="_xlchart.v1.45" hidden="1">Process_For_Charts!$A$10</definedName>
     <definedName name="_xlchart.v1.46" hidden="1">Process_For_Charts!$A$2</definedName>
     <definedName name="_xlchart.v1.47" hidden="1">Process_For_Charts!$C$10:$C$13</definedName>
@@ -70,9 +70,9 @@
     <definedName name="_xlchart.v1.5" hidden="1">'Data Collection_Target'!$B$2:$F$2</definedName>
     <definedName name="_xlchart.v1.50" hidden="1">Process_For_Charts!$A$10</definedName>
     <definedName name="_xlchart.v1.51" hidden="1">Process_For_Charts!$A$2</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Process_For_Charts!$C$10:$C$13</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Process_For_Charts!$L$10:$L$13</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Process_For_Charts!$L$2:$L$5</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">Process_For_Charts!$C$14:$C$17</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">Process_For_Charts!$M$14:$M$17</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">Process_For_Charts!$M$6:$M$9</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'Data Collection_Target'!$C$3:$F$3</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">'Data Collection_Target'!$C$5:$F$5</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">'Data Collection_Walmart'!$B$2:$F$2</definedName>
@@ -2118,6 +2118,575 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Return on Assets </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Process_For_Charts!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Walmart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Process_For_Charts!$M$6:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.0930421251092619E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8324757004002284E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3006305050377037E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7.6026977314530963E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A78-2144-A183-71F9A89EE627}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Process_For_Charts!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Target</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Process_For_Charts!$M$14:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.5693718753524037E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8216682646212849E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6424486734789537E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2802301537355031E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2A78-2144-A183-71F9A89EE627}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2109308863"/>
+        <c:axId val="376093232"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2109308863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Quarter</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="376093232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="376093232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2109308863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2198,6 +2767,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
@@ -3240,6 +3849,508 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -3314,6 +4425,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>305955</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>721592</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>78509</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BB857D0-E079-0C26-72B1-35A7000F1425}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4359,8 +5506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79748418-579A-3547-8923-74B499CE8AB2}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5004,8 +6151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF17F24-1E43-5347-9057-24C87B25B6A1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
